--- a/ECON9101_MCQ_GRADED_07062024-reweighted.xlsx
+++ b/ECON9101_MCQ_GRADED_07062024-reweighted.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Q1</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Q10</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
   <si>
     <t>UNum</t>
@@ -421,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -461,10 +467,16 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -496,8 +508,14 @@
       <c r="K2" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="2">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1234567</v>
       </c>
@@ -531,8 +549,14 @@
       <c r="K3" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="2">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>1234568</v>
       </c>
@@ -566,8 +590,14 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="2">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1234569</v>
       </c>
@@ -601,8 +631,14 @@
       <c r="K5" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="2">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>1234570</v>
       </c>
@@ -636,8 +672,14 @@
       <c r="K6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="2">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>1234571</v>
       </c>
@@ -671,8 +713,14 @@
       <c r="K7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="2">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>1234572</v>
       </c>
@@ -706,8 +754,14 @@
       <c r="K8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="2">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>1234573</v>
       </c>
@@ -741,8 +795,14 @@
       <c r="K9" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="2">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>1234574</v>
       </c>
@@ -776,8 +836,14 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="2">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>1234575</v>
       </c>
@@ -811,8 +877,14 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="2">
+        <v>15</v>
+      </c>
+      <c r="M11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>1234576</v>
       </c>
@@ -846,8 +918,14 @@
       <c r="K12" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="2">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>1234577</v>
       </c>
@@ -881,8 +959,14 @@
       <c r="K13" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="2">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>1234578</v>
       </c>
@@ -916,8 +1000,14 @@
       <c r="K14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="2">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>1234579</v>
       </c>
@@ -951,8 +1041,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="2">
+        <v>19</v>
+      </c>
+      <c r="M15" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>1234580</v>
       </c>
@@ -986,8 +1082,14 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="2">
+        <v>19</v>
+      </c>
+      <c r="M16" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>1234581</v>
       </c>
@@ -1021,8 +1123,14 @@
       <c r="K17" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="2">
+        <v>23</v>
+      </c>
+      <c r="M17" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>1234582</v>
       </c>
@@ -1056,8 +1164,14 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="2">
+        <v>17</v>
+      </c>
+      <c r="M18" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>1234583</v>
       </c>
@@ -1091,8 +1205,14 @@
       <c r="K19" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="2">
+        <v>28</v>
+      </c>
+      <c r="M19" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>1234584</v>
       </c>
@@ -1126,8 +1246,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="2">
+        <v>19</v>
+      </c>
+      <c r="M20" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>1234585</v>
       </c>
@@ -1161,8 +1287,14 @@
       <c r="K21" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="2">
+        <v>26</v>
+      </c>
+      <c r="M21" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>1234586</v>
       </c>
@@ -1196,8 +1328,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="2">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>1234587</v>
       </c>
@@ -1231,8 +1369,14 @@
       <c r="K23" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="2">
+        <v>35</v>
+      </c>
+      <c r="M23" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>1234588</v>
       </c>
@@ -1266,8 +1410,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="2">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>1234589</v>
       </c>
@@ -1301,8 +1451,14 @@
       <c r="K25" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="2">
+        <v>35</v>
+      </c>
+      <c r="M25" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>1234590</v>
       </c>
@@ -1336,8 +1492,14 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="2">
+        <v>19</v>
+      </c>
+      <c r="M26" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>1234591</v>
       </c>
@@ -1371,8 +1533,14 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="2">
+        <v>24</v>
+      </c>
+      <c r="M27" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>1234592</v>
       </c>
@@ -1406,8 +1574,14 @@
       <c r="K28" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="2">
+        <v>33</v>
+      </c>
+      <c r="M28" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>1234593</v>
       </c>
@@ -1441,8 +1615,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="2">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>1234594</v>
       </c>
@@ -1476,8 +1656,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="2">
+        <v>25</v>
+      </c>
+      <c r="M30" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>1234595</v>
       </c>
@@ -1511,8 +1697,14 @@
       <c r="K31" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="2">
+        <v>40</v>
+      </c>
+      <c r="M31" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>1234596</v>
       </c>
@@ -1546,8 +1738,14 @@
       <c r="K32" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="2">
+        <v>35</v>
+      </c>
+      <c r="M32" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>1234597</v>
       </c>
@@ -1581,8 +1779,14 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="2">
+        <v>17</v>
+      </c>
+      <c r="M33" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>1234598</v>
       </c>
@@ -1616,8 +1820,14 @@
       <c r="K34" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="2">
+        <v>28</v>
+      </c>
+      <c r="M34" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>1234599</v>
       </c>
@@ -1651,8 +1861,14 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="2">
+        <v>29</v>
+      </c>
+      <c r="M35" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>1234600</v>
       </c>
@@ -1686,8 +1902,14 @@
       <c r="K36" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="2">
+        <v>30</v>
+      </c>
+      <c r="M36" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>1234601</v>
       </c>
@@ -1721,8 +1943,14 @@
       <c r="K37" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="2">
+        <v>25</v>
+      </c>
+      <c r="M37" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>1234602</v>
       </c>
@@ -1756,8 +1984,14 @@
       <c r="K38" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="2">
+        <v>33</v>
+      </c>
+      <c r="M38" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>1234603</v>
       </c>
@@ -1791,8 +2025,14 @@
       <c r="K39" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="2">
+        <v>40</v>
+      </c>
+      <c r="M39" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>1234604</v>
       </c>
@@ -1826,8 +2066,14 @@
       <c r="K40" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="2">
+        <v>25</v>
+      </c>
+      <c r="M40" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>1234605</v>
       </c>
@@ -1861,8 +2107,14 @@
       <c r="K41" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="2">
+        <v>35</v>
+      </c>
+      <c r="M41" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>1234606</v>
       </c>
@@ -1896,8 +2148,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="2">
+        <v>27</v>
+      </c>
+      <c r="M42" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>1234607</v>
       </c>
@@ -1931,8 +2189,14 @@
       <c r="K43" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="2">
+        <v>33</v>
+      </c>
+      <c r="M43" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>1234608</v>
       </c>
@@ -1966,8 +2230,14 @@
       <c r="K44" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="2">
+        <v>25</v>
+      </c>
+      <c r="M44" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>1234609</v>
       </c>
@@ -2001,8 +2271,14 @@
       <c r="K45" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="2">
+        <v>33</v>
+      </c>
+      <c r="M45" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>1234610</v>
       </c>
@@ -2036,8 +2312,14 @@
       <c r="K46" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="2">
+        <v>25</v>
+      </c>
+      <c r="M46" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>1234611</v>
       </c>
@@ -2071,8 +2353,14 @@
       <c r="K47" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="2">
+        <v>30</v>
+      </c>
+      <c r="M47" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>1234612</v>
       </c>
@@ -2106,8 +2394,14 @@
       <c r="K48" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="2">
+        <v>30</v>
+      </c>
+      <c r="M48" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>1234613</v>
       </c>
@@ -2141,8 +2435,14 @@
       <c r="K49" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="2">
+        <v>30</v>
+      </c>
+      <c r="M49" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>1234614</v>
       </c>
@@ -2176,8 +2476,14 @@
       <c r="K50" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="2">
+        <v>35</v>
+      </c>
+      <c r="M50" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>1234615</v>
       </c>
@@ -2211,8 +2517,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="2">
+        <v>17</v>
+      </c>
+      <c r="M51" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>1234616</v>
       </c>
@@ -2246,8 +2558,14 @@
       <c r="K52" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="2">
+        <v>30</v>
+      </c>
+      <c r="M52" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>1234617</v>
       </c>
@@ -2281,8 +2599,14 @@
       <c r="K53" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="2">
+        <v>35</v>
+      </c>
+      <c r="M53" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>1234618</v>
       </c>
@@ -2316,8 +2640,14 @@
       <c r="K54" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="2">
+        <v>30</v>
+      </c>
+      <c r="M54" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>1234619</v>
       </c>
@@ -2351,8 +2681,14 @@
       <c r="K55" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="2">
+        <v>35</v>
+      </c>
+      <c r="M55" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>1234620</v>
       </c>
@@ -2386,8 +2722,14 @@
       <c r="K56" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="2">
+        <v>35</v>
+      </c>
+      <c r="M56" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>1234621</v>
       </c>
@@ -2421,8 +2763,14 @@
       <c r="K57" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="2">
+        <v>30</v>
+      </c>
+      <c r="M57" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>1234622</v>
       </c>
@@ -2456,8 +2804,14 @@
       <c r="K58" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="2">
+        <v>20</v>
+      </c>
+      <c r="M58" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>1234623</v>
       </c>
@@ -2491,8 +2845,14 @@
       <c r="K59" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="2">
+        <v>35</v>
+      </c>
+      <c r="M59" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>1234624</v>
       </c>
@@ -2526,8 +2886,14 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="2">
+        <v>29</v>
+      </c>
+      <c r="M60" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>1234625</v>
       </c>
@@ -2561,8 +2927,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="2">
+        <v>24</v>
+      </c>
+      <c r="M61" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>1234626</v>
       </c>
@@ -2596,8 +2968,14 @@
       <c r="K62" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="2">
+        <v>30</v>
+      </c>
+      <c r="M62" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>1234627</v>
       </c>
@@ -2631,8 +3009,14 @@
       <c r="K63" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="2">
+        <v>25</v>
+      </c>
+      <c r="M63" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>1234628</v>
       </c>
@@ -2666,8 +3050,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="2">
+        <v>22</v>
+      </c>
+      <c r="M64" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>1234629</v>
       </c>
@@ -2701,8 +3091,14 @@
       <c r="K65" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="2">
+        <v>23</v>
+      </c>
+      <c r="M65" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>1234630</v>
       </c>
@@ -2736,8 +3132,14 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="2">
+        <v>29</v>
+      </c>
+      <c r="M66" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>1234631</v>
       </c>
@@ -2771,8 +3173,14 @@
       <c r="K67" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="2">
+        <v>30</v>
+      </c>
+      <c r="M67" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>1234632</v>
       </c>
@@ -2806,8 +3214,14 @@
       <c r="K68" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68" s="2">
+        <v>23</v>
+      </c>
+      <c r="M68" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>1234633</v>
       </c>
@@ -2841,8 +3255,14 @@
       <c r="K69" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="2">
+        <v>40</v>
+      </c>
+      <c r="M69" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>1234634</v>
       </c>
@@ -2876,8 +3296,14 @@
       <c r="K70" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="2">
+        <v>15</v>
+      </c>
+      <c r="M70" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>1234635</v>
       </c>
@@ -2911,8 +3337,14 @@
       <c r="K71" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" s="2">
+        <v>35</v>
+      </c>
+      <c r="M71" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>1234636</v>
       </c>
@@ -2946,8 +3378,14 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" s="2">
+        <v>19</v>
+      </c>
+      <c r="M72" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>1234637</v>
       </c>
@@ -2981,8 +3419,14 @@
       <c r="K73" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="2">
+        <v>45</v>
+      </c>
+      <c r="M73" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>1234638</v>
       </c>
@@ -3016,8 +3460,14 @@
       <c r="K74" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="2">
+        <v>26</v>
+      </c>
+      <c r="M74" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>1234639</v>
       </c>
@@ -3051,8 +3501,14 @@
       <c r="K75" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="2">
+        <v>38</v>
+      </c>
+      <c r="M75" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>1234640</v>
       </c>
@@ -3086,8 +3542,14 @@
       <c r="K76" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" s="2">
+        <v>30</v>
+      </c>
+      <c r="M76" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>1234641</v>
       </c>
@@ -3121,8 +3583,14 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" s="2">
+        <v>19</v>
+      </c>
+      <c r="M77" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>1234642</v>
       </c>
@@ -3156,8 +3624,14 @@
       <c r="K78" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" s="2">
+        <v>35</v>
+      </c>
+      <c r="M78" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>1234643</v>
       </c>
@@ -3191,8 +3665,14 @@
       <c r="K79" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" s="2">
+        <v>30</v>
+      </c>
+      <c r="M79" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>1234644</v>
       </c>
@@ -3226,8 +3706,14 @@
       <c r="K80" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="2">
+        <v>20</v>
+      </c>
+      <c r="M80" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>1234645</v>
       </c>
@@ -3261,8 +3747,14 @@
       <c r="K81" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81" s="2">
+        <v>25</v>
+      </c>
+      <c r="M81" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>1234646</v>
       </c>
@@ -3296,8 +3788,14 @@
       <c r="K82" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82" s="2">
+        <v>23</v>
+      </c>
+      <c r="M82" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>1234647</v>
       </c>
@@ -3331,8 +3829,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" s="2">
+        <v>29</v>
+      </c>
+      <c r="M83" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>1234648</v>
       </c>
@@ -3366,8 +3870,14 @@
       <c r="K84" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84" s="2">
+        <v>23</v>
+      </c>
+      <c r="M84" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>1234649</v>
       </c>
@@ -3401,8 +3911,14 @@
       <c r="K85" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="2">
+        <v>35</v>
+      </c>
+      <c r="M85" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>1234650</v>
       </c>
@@ -3436,8 +3952,14 @@
       <c r="K86" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" s="2">
+        <v>26</v>
+      </c>
+      <c r="M86" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>1234651</v>
       </c>
@@ -3471,8 +3993,14 @@
       <c r="K87" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" s="2">
+        <v>25</v>
+      </c>
+      <c r="M87" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>1234652</v>
       </c>
@@ -3505,6 +4033,12 @@
       </c>
       <c r="K88" s="3">
         <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>39</v>
+      </c>
+      <c r="M88" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
